--- a/xlsx/法律_intext.xlsx
+++ b/xlsx/法律_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1121">
   <si>
     <t>法律</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>規則</t>
+    <t>规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E7%B3%BB</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%AD%A3</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -143,31 +143,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B4%8D%E6%89%98%E7%88%BE%C2%B7%E6%B3%95%E9%83%8E%E5%A3%AB</t>
   </si>
   <si>
-    <t>阿納托爾·法郎士</t>
+    <t>阿纳托尔·法郎士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>司法部門</t>
+    <t>司法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>立法部門</t>
+    <t>立法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>行政部門</t>
+    <t>行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E4%BB%A4</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B</t>
@@ -287,21 +287,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>債法</t>
+    <t>债法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95</t>
   </si>
   <si>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>物權法</t>
+    <t>物权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%89%98%E6%B3%95</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
@@ -359,85 +356,85 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
+    <t>联合国宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>凡爾賽條約</t>
+    <t>凡尔赛条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>日內瓦公約</t>
+    <t>日内瓦公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E5%88%A4%E6%AC%8A</t>
   </si>
   <si>
-    <t>審判權</t>
+    <t>审判权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>資本</t>
+    <t>资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8A%9B</t>
   </si>
   <si>
-    <t>勞力</t>
+    <t>劳力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%BF%E8%AE%A4%E5%8F%8A%E6%89%A7%E8%A1%8C%E5%A4%96%E5%9B%BD%E4%BB%B2%E8%A3%81%E8%A3%81%E5%86%B3%E5%85%AC%E7%BA%A6</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲議會</t>
+    <t>欧洲议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95%E5%AD%A6</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%BA%E6%AC%8A%E5%92%8C%E5%85%AC%E6%B0%91%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>法國人權和公民權宣言</t>
+    <t>法国人权和公民权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>美國法律</t>
+    <t>美国法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
@@ -503,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E6%B3%95</t>
@@ -551,31 +548,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95%E7%8A%AF%E7%BD%AA%E4%B8%89%E9%9A%8E%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>刑法犯罪三階理論</t>
+    <t>刑法犯罪三阶理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C%E9%97%9C%E4%BF%82_(%E6%B3%95%E5%BE%8B)</t>
   </si>
   <si>
-    <t>因果關係 (法律)</t>
+    <t>因果关系 (法律)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%B3%95%E6%80%A7</t>
   </si>
   <si>
-    <t>違法性</t>
+    <t>违法性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BB%E5%8D%BB%E9%81%95%E6%B3%95</t>
   </si>
   <si>
-    <t>阻卻違法</t>
+    <t>阻却违法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%BD%93%E9%98%B2%E5%8D%AB</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%8A%E6%80%A5%E9%81%BF%E9%9B%A3</t>
   </si>
   <si>
-    <t>緊急避難</t>
+    <t>紧急避难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%8E%8B%E8%AF%89%E6%9D%9C%E5%BE%B7%E5%88%A9%E4%B8%8E%E6%96%AF%E8%92%82%E8%8A%AC%E6%A1%88</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E5%92%B8%E9%A0%93</t>
   </si>
   <si>
-    <t>修咸頓</t>
+    <t>修咸顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E6%A2%A8_(%E5%9F%8E%E5%B8%82)</t>
@@ -617,37 +614,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%9E%E5%88%91</t>
   </si>
   <si>
-    <t>絞刑</t>
+    <t>绞刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%89%B9%E6%AC%8A</t>
   </si>
   <si>
-    <t>君主特權</t>
+    <t>君主特权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E8%B2%AC%E6%80%A7</t>
   </si>
   <si>
-    <t>有責性</t>
+    <t>有责性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
@@ -659,67 +656,67 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E7%BD%B0</t>
   </si>
   <si>
-    <t>體罰</t>
+    <t>体罚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%8D%84</t>
   </si>
   <si>
-    <t>監獄</t>
+    <t>监狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B0%E9%87%91</t>
   </si>
   <si>
-    <t>罰金</t>
+    <t>罚金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA</t>
   </si>
   <si>
-    <t>判決</t>
+    <t>判决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%AE%B3%E4%BA%BA%E9%A1%9E%E7%BD%AA</t>
   </si>
   <si>
-    <t>危害人類罪</t>
+    <t>危害人类罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>證人</t>
+    <t>证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%BF%E8%AB%BE</t>
   </si>
   <si>
-    <t>承諾</t>
+    <t>承诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>戴爾電腦</t>
+    <t>戴尔电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
@@ -731,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8D%97%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>臺南地方法院</t>
+    <t>台南地方法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%95%B6%E5%BE%97%E5%88%A9</t>
   </si>
   <si>
-    <t>不當得利</t>
+    <t>不当得利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E5%9B%A0</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A0%E7%B4%84%E4%B8%8A%E9%81%8E%E5%A4%B1</t>
   </si>
   <si>
-    <t>締約上過失</t>
+    <t>缔约上过失</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%B5%E6%9D%83%E8%A1%8C%E4%B8%BA</t>
@@ -773,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E%E8%AA%B9%E8%AC%97%E6%A1%88</t>
   </si>
   <si>
-    <t>麥當勞誹謗案</t>
+    <t>麦当劳诽谤案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
   </si>
   <si>
-    <t>麥當勞</t>
+    <t>麦当劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E6%96%AF%E5%88%A9</t>
@@ -791,25 +788,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9D%B8%E7%89%9B</t>
   </si>
   <si>
-    <t>蝸牛</t>
+    <t>蜗牛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>英國上議院</t>
+    <t>英国上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E6%AC%8A</t>
   </si>
   <si>
-    <t>人格權</t>
+    <t>人格权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94</t>
   </si>
   <si>
-    <t>身體</t>
+    <t>身体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%AD%BD</t>
   </si>
   <si>
-    <t>名譽</t>
+    <t>名誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -857,31 +854,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9E%E6%93%8D</t>
   </si>
   <si>
-    <t>貞操</t>
+    <t>贞操</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E9%9A%B1</t>
   </si>
   <si>
-    <t>私隱</t>
+    <t>私隐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E7%A7%80%E8%93%AE</t>
   </si>
   <si>
-    <t>呂秀蓮</t>
+    <t>吕秀莲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>新新聞</t>
+    <t>新新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%BF%E5%98%BF%E5%98%BF%E6%A1%88</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E6%B3%95</t>
   </si>
   <si>
-    <t>勞動法</t>
+    <t>劳动法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7%E6%B3%A1%E6%B2%AB%E4%BA%8B%E4%BB%B6</t>
@@ -905,19 +902,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>投機</t>
+    <t>投机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8B%95%E7%94%A2</t>
   </si>
   <si>
-    <t>不動產</t>
+    <t>不动产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%94%A2</t>
   </si>
   <si>
-    <t>動產</t>
+    <t>动产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -935,13 +932,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE-%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%99%AE%E9%AD%AF%E6%9D%B1</t>
   </si>
   <si>
-    <t>皮埃爾-約瑟夫·普魯東</t>
+    <t>皮埃尔-约瑟夫·普鲁东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%B5%E6%8A%BC</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E6%B3%95</t>
@@ -1001,19 +998,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%9F%E8%B3%83</t>
   </si>
   <si>
-    <t>租賃</t>
+    <t>租赁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>利益衝突</t>
+    <t>利益冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>執行長</t>
+    <t>执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%87%91</t>
@@ -1031,91 +1028,91 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>大英博物館</t>
+    <t>大英博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>洛克菲勒基金會</t>
+    <t>洛克菲勒基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%AB%87%E5%88%A4</t>
   </si>
   <si>
-    <t>集體談判</t>
+    <t>集体谈判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>人權法</t>
+    <t>人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BA%BA%E6%AC%8A%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>歐洲人權公約</t>
+    <t>欧洲人权公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國權利法案</t>
+    <t>美国权利法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>國籍法</t>
+    <t>国籍法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民權</t>
+    <t>公民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>庇護權</t>
+    <t>庇护权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>無國籍</t>
+    <t>无国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BF%9D%E9%9A%9C</t>
   </si>
   <si>
-    <t>社會保障</t>
+    <t>社会保障</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%B3%95</t>
@@ -1127,19 +1124,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E5%A9%9A</t>
   </si>
   <si>
-    <t>結婚</t>
+    <t>结婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%A9%9A</t>
   </si>
   <si>
-    <t>離婚</t>
+    <t>离婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%90%86</t>
@@ -1151,13 +1148,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>保險法</t>
+    <t>保险法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%A8%E6%93%9A%E6%B3%95</t>
   </si>
   <si>
-    <t>票據法</t>
+    <t>票据法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%8A%9B%E5%81%BF%E4%BB%98</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E5%95%86%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>統一商法典</t>
+    <t>统一商法典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -1187,25 +1184,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9</t>
   </si>
   <si>
-    <t>專利</t>
+    <t>专利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A8%99</t>
   </si>
   <si>
-    <t>商標</t>
+    <t>商标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%80%BC%E7%A8%85</t>
   </si>
   <si>
-    <t>增值稅</t>
+    <t>增值税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A5%E4%B8%9A%E7%A8%8E</t>
@@ -1217,25 +1214,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>所得稅</t>
+    <t>所得税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E8%82%A1%E7%81%BD</t>
   </si>
   <si>
-    <t>華爾街股災</t>
+    <t>华尔街股灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>公共服務</t>
+    <t>公共服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%94%A8%E4%BA%8B%E4%B8%9A</t>
@@ -1253,13 +1250,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%89%98%E6%8B%89%E6%96%AF%E6%B3%95</t>
@@ -1271,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%9B%BC%E6%B3%95%E6%A1%88</t>
@@ -1295,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AD%B0%E5%AE%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>京都議定書</t>
+    <t>京都议定书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>氣候變遷</t>
+    <t>气候变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -1313,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%B1%8D</t>
   </si>
   <si>
-    <t>經籍</t>
+    <t>经籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%BA%90</t>
@@ -1331,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB%E6%B3%95</t>
   </si>
   <si>
-    <t>巴比倫法</t>
+    <t>巴比伦法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%B0%9F%E6%8B%89%E6%AF%94%E6%B3%95%E5%85%B8</t>
@@ -1343,31 +1340,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
+    <t>罗马共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占庭帝國</t>
+    <t>拜占庭帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A3%AB%E4%B8%81%E5%B0%BC%E4%B8%80%E4%B8%96</t>
@@ -1385,19 +1382,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%9A%97%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>黑暗時代</t>
+    <t>黑暗时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9A%86%E9%82%A3%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波隆那大學</t>
+    <t>波隆那大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E6%B0%91%E6%B3%95%E5%85%B8</t>
@@ -1415,13 +1412,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>中華人民共和國法律</t>
+    <t>中华人民共和国法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
@@ -1451,13 +1448,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0_(%E8%8B%B1%E6%A0%BC%E5%85%B0%E5%9B%BD%E7%8E%8B)</t>
@@ -1469,13 +1466,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>大憲章</t>
+    <t>大宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%8E%AB%E5%B0%94</t>
@@ -1487,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%8B%89%E5%8D%A1</t>
@@ -1499,13 +1496,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -1517,25 +1514,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>教會法典</t>
+    <t>教会法典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
+    <t>古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E4%BA%94%E7%B6%93</t>
   </si>
   <si>
-    <t>摩西五經</t>
+    <t>摩西五经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%B4%84%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>舊約聖經</t>
+    <t>旧约圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -1547,31 +1544,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>羅馬天主教會</t>
+    <t>罗马天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東方正教</t>
+    <t>东方正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E8%81%96%E5%85%AC%E5%AE%97</t>
   </si>
   <si>
-    <t>普世聖公宗</t>
+    <t>普世圣公宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>伊斯蘭國家</t>
+    <t>伊斯兰国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧圖曼帝國</t>
+    <t>奥图曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -1595,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AC%A8%E6%8B%89%E6%AF%94</t>
   </si>
   <si>
-    <t>漢謨拉比</t>
+    <t>汉谟拉比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%8E%9B%E4%BB%80</t>
@@ -1607,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
@@ -1625,19 +1622,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E7%89%B9</t>
   </si>
   <si>
-    <t>瑪特</t>
+    <t>玛特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E8%BE%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>修辭學</t>
+    <t>修辞学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>奴隸制度</t>
+    <t>奴隶制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
@@ -1649,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國家主義</t>
+    <t>国家主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%AE%AA%E6%B3%95</t>
@@ -1685,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%95%99</t>
@@ -1697,13 +1694,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -1721,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -1733,31 +1730,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%B3%95%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>六法全書</t>
+    <t>六法全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>社會主義法律</t>
+    <t>社会主义法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84%E8%AB%96</t>
   </si>
   <si>
-    <t>社會契約論</t>
+    <t>社会契约论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -1769,13 +1766,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫敦大學</t>
+    <t>伦敦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>功利主義</t>
+    <t>功利主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -1787,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E9%9B%85%E5%90%84%C2%B7%E7%9B%A7%E6%A2%AD</t>
   </si>
   <si>
-    <t>讓·雅各·盧梭</t>
+    <t>让·雅各·卢梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -1799,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E7%88%BE%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努爾·康德</t>
+    <t>伊曼努尔·康德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -1811,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AF%A6%E8%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法律實證主義</t>
+    <t>法律实证主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%B0%BC%E9%87%87</t>
@@ -1853,13 +1850,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E5%BE%B7%E6%B2%83%E9%87%91</t>
   </si>
   <si>
-    <t>羅納德·德沃金</t>
+    <t>罗纳德·德沃金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1871,25 +1868,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7A%C2%B7%E6%B3%A2%E6%96%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>理察·A·波斯納</t>
+    <t>理察·A·波斯纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
+    <t>盖瑞·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%A3%AE</t>
@@ -1901,19 +1898,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
+    <t>诺贝尔经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%AB%98%E6%96%AF</t>
@@ -1931,19 +1928,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>經濟人</t>
+    <t>经济人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
-    <t>馬克斯·韋伯</t>
+    <t>马克斯·韦伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84</t>
@@ -1967,13 +1964,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BD%8C%E7%88%BE%C2%B7%E6%B6%82%E7%88%BE%E5%B9%B9</t>
   </si>
   <si>
-    <t>艾彌爾·涂爾幹</t>
+    <t>艾弥尔·涂尔干</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8F%A4%E5%B0%94%E7%BB%B4%E5%A5%87</t>
@@ -1985,61 +1982,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%BF%81%C2%B7%E5%BD%BC%E5%BE%97%E6%8B%89%E6%97%A5%E8%8C%A8%E5%9F%BA</t>
   </si>
   <si>
-    <t>萊翁·彼得拉日茨基</t>
+    <t>莱翁·彼得拉日茨基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%B3%95%E7%9A%84%E7%B2%BE%E7%A5%9E</t>
   </si>
   <si>
-    <t>論法的精神</t>
+    <t>论法的精神</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>托馬斯·霍布斯</t>
+    <t>托马斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%B6%AD%E5%9D%A6</t>
   </si>
   <si>
-    <t>利維坦</t>
+    <t>利维坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
@@ -2051,13 +2048,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>上訴法院</t>
+    <t>上诉法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E5%AF%A9%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>終審法院</t>
+    <t>终审法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -2075,13 +2072,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%AB%98%E7%AD%89%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>澳大利亞高等法院</t>
+    <t>澳大利亚高等法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>上議院</t>
+    <t>上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E5%AE%AA%E6%B3%95%E6%B3%95%E9%99%A2</t>
@@ -2093,13 +2090,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>中華民國最高法院</t>
+    <t>中华民国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E4%BA%BA%E6%B0%91%E6%B3%95%E9%99%A2</t>
@@ -2111,7 +2105,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BA%BA%E6%9D%83%E6%B3%95%E9%99%A2</t>
@@ -2123,19 +2117,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2%E5%AF%A9%E6%9F%A5</t>
   </si>
   <si>
-    <t>違憲審查</t>
+    <t>违宪审查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%A8%B4%E9%9F%8B%E5%BE%B7%E6%A1%88</t>
   </si>
   <si>
-    <t>羅訴韋德案</t>
+    <t>罗诉韦德案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E</t>
@@ -2153,31 +2147,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E4%B9%9D%E6%A7%8D%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>三一九槍擊事件</t>
+    <t>三一九枪击事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>共產國家</t>
+    <t>共产国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95</t>
   </si>
   <si>
-    <t>伊斯蘭教法</t>
+    <t>伊斯兰教法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -2189,31 +2183,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AF%E8%AB%96</t>
   </si>
   <si>
-    <t>辯論</t>
+    <t>辩论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%AE%AE</t>
   </si>
   <si>
-    <t>西敏宮</t>
+    <t>西敏宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -2225,7 +2219,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>德國聯邦議院</t>
+    <t>德国联邦议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -2249,13 +2243,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>法國國民議會</t>
+    <t>法国国民议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%B6</t>
@@ -2267,19 +2261,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
@@ -2291,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>選區</t>
+    <t>选区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -2345,13 +2339,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>否決權</t>
+    <t>否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -2369,13 +2363,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>德國聯邦總統</t>
+    <t>德国联邦总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>英國君主</t>
+    <t>英国君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E6%80%BB%E7%BB%9F</t>
@@ -2393,43 +2387,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>外交關係</t>
+    <t>外交关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>部長</t>
+    <t>部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F%E7%BD%B2</t>
   </si>
   <si>
-    <t>衛生署</t>
+    <t>卫生署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>法務部</t>
+    <t>法务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E9%97%9C%E5%8F%8A%E9%82%8A%E5%A2%83%E4%BF%9D%E8%A1%9B%E5%B1%80</t>
   </si>
   <si>
-    <t>美國海關及邊境保衛局</t>
+    <t>美国海关及边境保卫局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%A9</t>
   </si>
   <si>
-    <t>公審</t>
+    <t>公审</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E5%8D%81%E5%9B%9B</t>
@@ -2441,31 +2435,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%94%BF%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>內政大臣</t>
+    <t>内政大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%9A%AE%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·皮爾</t>
+    <t>罗伯特·皮尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E8%AD%A6%E5%AF%9F%E5%BB%B3</t>
   </si>
   <si>
-    <t>倫敦警察廳</t>
+    <t>伦敦警察厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
@@ -2477,31 +2471,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%B0%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>衰敗國家</t>
+    <t>衰败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>大眾運輸</t>
+    <t>大众运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -2513,13 +2507,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%B3%BB</t>
@@ -2537,13 +2531,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>法律學位</t>
+    <t>法律学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>法律事務所</t>
+    <t>法律事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E6%9C%9F%E5%88%8A</t>
@@ -2555,7 +2549,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%89%98</t>
@@ -2567,13 +2561,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E8%A7%A3</t>
   </si>
   <si>
-    <t>調解</t>
+    <t>调解</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>非裔美國人民權運動</t>
+    <t>非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%BB%91%E6%A0%BC%E5%B0%94</t>
@@ -2591,25 +2585,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>大律師</t>
+    <t>大律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%AD%B0%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>審議民主</t>
+    <t>审议民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E6%80%A7</t>
@@ -2621,19 +2615,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>媒體</t>
+    <t>媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>工商業</t>
+    <t>工商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E6%9C%BA%E6%9E%84</t>
@@ -2663,7 +2657,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%B0%91%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國民法</t>
+    <t>中华民国民法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -2675,7 +2669,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%BE%A4%E9%91%91</t>
   </si>
   <si>
-    <t>王澤鑑</t>
+    <t>王泽鑑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Immanuel_Kant</t>
@@ -2687,31 +2681,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>德國基本法</t>
+    <t>德国基本法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E6%9C%80%E9%AB%98%E8%A1%8C%E6%94%BF%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>德國聯邦最高行政法院</t>
+    <t>德国联邦最高行政法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E6%9C%80%E9%AB%98%E5%8B%9E%E5%B7%A5%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>德國聯邦最高勞工法院</t>
+    <t>德国联邦最高劳工法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E6%9C%80%E9%AB%98%E7%A4%BE%E6%9C%83%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>德國聯邦最高社會法院</t>
+    <t>德国联邦最高社会法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E6%9C%83%E5%B8%B8%E5%8B%99%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>全國人民代表大會常務委員會</t>
+    <t>全国人民代表大会常务委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%BE%80%E5%A5%B4%E5%BD%B9%E4%B9%8B%E8%B7%AF</t>
@@ -2783,7 +2777,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BB%A4</t>
@@ -2801,7 +2795,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -2819,13 +2813,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Restitution</t>
@@ -2909,13 +2903,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -2951,13 +2945,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -2999,19 +2993,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -3035,7 +3029,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -3077,25 +3071,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -3155,7 +3149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -3179,7 +3173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -3197,7 +3191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -3209,7 +3203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -3227,7 +3221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -3245,13 +3239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -3275,7 +3269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -3323,7 +3317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Officer_of_the_court</t>
@@ -3341,19 +3335,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -3371,7 +3365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -5088,7 +5082,7 @@
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G47" t="n">
         <v>9</v>
@@ -5114,10 +5108,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>13</v>
@@ -5143,10 +5137,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>13</v>
@@ -5172,10 +5166,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -5201,10 +5195,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>7</v>
@@ -5259,10 +5253,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -5288,10 +5282,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -5317,10 +5311,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5346,10 +5340,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -5375,10 +5369,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -5433,10 +5427,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -5462,10 +5456,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5491,10 +5485,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -5520,10 +5514,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5549,10 +5543,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -5578,10 +5572,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -5607,10 +5601,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5636,10 +5630,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5665,10 +5659,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5694,10 +5688,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -5723,10 +5717,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5752,10 +5746,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5781,10 +5775,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -5810,10 +5804,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5839,10 +5833,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5868,10 +5862,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" t="s">
         <v>107</v>
-      </c>
-      <c r="F74" t="s">
-        <v>108</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -5897,10 +5891,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5926,10 +5920,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>58</v>
@@ -5955,10 +5949,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5984,10 +5978,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -6013,10 +6007,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -6042,10 +6036,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -6071,10 +6065,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>15</v>
@@ -6100,10 +6094,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6129,10 +6123,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>18</v>
@@ -6158,10 +6152,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -6187,10 +6181,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -6216,10 +6210,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6245,10 +6239,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -6274,10 +6268,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -6303,10 +6297,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6332,10 +6326,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -6361,10 +6355,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6390,10 +6384,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
@@ -6419,10 +6413,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -6448,10 +6442,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6477,10 +6471,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -6506,10 +6500,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -6535,10 +6529,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -6564,10 +6558,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6593,10 +6587,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -6622,10 +6616,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6651,10 +6645,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6680,10 +6674,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6709,10 +6703,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6738,10 +6732,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6767,10 +6761,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -6796,10 +6790,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6854,10 +6848,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -6883,10 +6877,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>26</v>
@@ -6912,10 +6906,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6941,10 +6935,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6970,10 +6964,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6999,10 +6993,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7028,10 +7022,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7057,10 +7051,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>19</v>
@@ -7086,10 +7080,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7115,10 +7109,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7144,10 +7138,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>41</v>
@@ -7173,10 +7167,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -7202,10 +7196,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7231,10 +7225,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
@@ -7260,10 +7254,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -7289,10 +7283,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -7318,10 +7312,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -7347,10 +7341,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>21</v>
@@ -7376,10 +7370,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7405,10 +7399,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
@@ -7434,10 +7428,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7463,10 +7457,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7492,10 +7486,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>21</v>
@@ -7521,10 +7515,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7550,10 +7544,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7579,10 +7573,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7608,10 +7602,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7637,10 +7631,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7666,10 +7660,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -7695,10 +7689,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>7</v>
@@ -7724,10 +7718,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>5</v>
@@ -7753,10 +7747,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7782,10 +7776,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7811,10 +7805,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -7840,10 +7834,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>13</v>
@@ -7869,10 +7863,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7898,10 +7892,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7927,10 +7921,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7956,10 +7950,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7985,10 +7979,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -8014,10 +8008,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8043,10 +8037,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8072,10 +8066,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8101,10 +8095,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -8130,10 +8124,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8159,10 +8153,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8188,10 +8182,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -8217,10 +8211,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>5</v>
@@ -8246,10 +8240,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8275,10 +8269,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8304,10 +8298,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>25</v>
@@ -8333,10 +8327,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" t="s">
-        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8362,10 +8356,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8391,10 +8385,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8420,10 +8414,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
-      </c>
-      <c r="F162" t="s">
-        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8449,10 +8443,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -8478,10 +8472,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
@@ -8507,10 +8501,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>6</v>
@@ -8536,10 +8530,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>16</v>
@@ -8565,10 +8559,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>10</v>
@@ -8594,10 +8588,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>10</v>
@@ -8623,10 +8617,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8652,10 +8646,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8681,10 +8675,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8710,10 +8704,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8739,10 +8733,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8768,10 +8762,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8797,10 +8791,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8826,10 +8820,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -8855,10 +8849,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8884,10 +8878,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8913,10 +8907,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8942,10 +8936,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>4</v>
@@ -8971,10 +8965,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9000,10 +8994,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" t="s">
         <v>353</v>
-      </c>
-      <c r="F182" t="s">
-        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9029,10 +9023,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" t="s">
         <v>355</v>
-      </c>
-      <c r="F183" t="s">
-        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -9058,10 +9052,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>356</v>
+      </c>
+      <c r="F184" t="s">
         <v>357</v>
-      </c>
-      <c r="F184" t="s">
-        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9087,10 +9081,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" t="s">
         <v>359</v>
-      </c>
-      <c r="F185" t="s">
-        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9116,10 +9110,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
         <v>361</v>
-      </c>
-      <c r="F186" t="s">
-        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9145,10 +9139,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
         <v>363</v>
-      </c>
-      <c r="F187" t="s">
-        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9174,10 +9168,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
         <v>365</v>
-      </c>
-      <c r="F188" t="s">
-        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9203,10 +9197,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>366</v>
+      </c>
+      <c r="F189" t="s">
         <v>367</v>
-      </c>
-      <c r="F189" t="s">
-        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9232,10 +9226,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>368</v>
+      </c>
+      <c r="F190" t="s">
         <v>369</v>
-      </c>
-      <c r="F190" t="s">
-        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9261,10 +9255,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>370</v>
+      </c>
+      <c r="F191" t="s">
         <v>371</v>
-      </c>
-      <c r="F191" t="s">
-        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9290,10 +9284,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>372</v>
+      </c>
+      <c r="F192" t="s">
         <v>373</v>
-      </c>
-      <c r="F192" t="s">
-        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9319,10 +9313,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" t="s">
         <v>375</v>
-      </c>
-      <c r="F193" t="s">
-        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9348,10 +9342,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F194" t="s">
         <v>377</v>
-      </c>
-      <c r="F194" t="s">
-        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9377,10 +9371,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" t="s">
         <v>379</v>
-      </c>
-      <c r="F195" t="s">
-        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9406,10 +9400,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>380</v>
+      </c>
+      <c r="F196" t="s">
         <v>381</v>
-      </c>
-      <c r="F196" t="s">
-        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9435,10 +9429,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>382</v>
+      </c>
+      <c r="F197" t="s">
         <v>383</v>
-      </c>
-      <c r="F197" t="s">
-        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9464,10 +9458,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>384</v>
+      </c>
+      <c r="F198" t="s">
         <v>385</v>
-      </c>
-      <c r="F198" t="s">
-        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>11</v>
@@ -9493,10 +9487,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>386</v>
+      </c>
+      <c r="F199" t="s">
         <v>387</v>
-      </c>
-      <c r="F199" t="s">
-        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9522,10 +9516,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>388</v>
+      </c>
+      <c r="F200" t="s">
         <v>389</v>
-      </c>
-      <c r="F200" t="s">
-        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9551,10 +9545,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>390</v>
+      </c>
+      <c r="F201" t="s">
         <v>391</v>
-      </c>
-      <c r="F201" t="s">
-        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9580,10 +9574,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>392</v>
+      </c>
+      <c r="F202" t="s">
         <v>393</v>
-      </c>
-      <c r="F202" t="s">
-        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9609,10 +9603,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>394</v>
+      </c>
+      <c r="F203" t="s">
         <v>395</v>
-      </c>
-      <c r="F203" t="s">
-        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9638,10 +9632,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>396</v>
+      </c>
+      <c r="F204" t="s">
         <v>397</v>
-      </c>
-      <c r="F204" t="s">
-        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9667,10 +9661,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>398</v>
+      </c>
+      <c r="F205" t="s">
         <v>399</v>
-      </c>
-      <c r="F205" t="s">
-        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9696,10 +9690,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>400</v>
+      </c>
+      <c r="F206" t="s">
         <v>401</v>
-      </c>
-      <c r="F206" t="s">
-        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9725,10 +9719,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>402</v>
+      </c>
+      <c r="F207" t="s">
         <v>403</v>
-      </c>
-      <c r="F207" t="s">
-        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9754,10 +9748,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>404</v>
+      </c>
+      <c r="F208" t="s">
         <v>405</v>
-      </c>
-      <c r="F208" t="s">
-        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -9783,10 +9777,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>406</v>
+      </c>
+      <c r="F209" t="s">
         <v>407</v>
-      </c>
-      <c r="F209" t="s">
-        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9812,10 +9806,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>408</v>
+      </c>
+      <c r="F210" t="s">
         <v>409</v>
-      </c>
-      <c r="F210" t="s">
-        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9841,10 +9835,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211" t="s">
         <v>411</v>
-      </c>
-      <c r="F211" t="s">
-        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9870,10 +9864,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>412</v>
+      </c>
+      <c r="F212" t="s">
         <v>413</v>
-      </c>
-      <c r="F212" t="s">
-        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -9899,10 +9893,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>414</v>
+      </c>
+      <c r="F213" t="s">
         <v>415</v>
-      </c>
-      <c r="F213" t="s">
-        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9928,10 +9922,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" t="s">
         <v>417</v>
-      </c>
-      <c r="F214" t="s">
-        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9957,10 +9951,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" t="s">
         <v>419</v>
-      </c>
-      <c r="F215" t="s">
-        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9986,10 +9980,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" t="s">
         <v>421</v>
-      </c>
-      <c r="F216" t="s">
-        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10015,10 +10009,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" t="s">
         <v>423</v>
-      </c>
-      <c r="F217" t="s">
-        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -10044,10 +10038,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218" t="s">
         <v>425</v>
-      </c>
-      <c r="F218" t="s">
-        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10073,10 +10067,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" t="s">
         <v>427</v>
-      </c>
-      <c r="F219" t="s">
-        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10102,10 +10096,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>428</v>
+      </c>
+      <c r="F220" t="s">
         <v>429</v>
-      </c>
-      <c r="F220" t="s">
-        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10131,10 +10125,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>430</v>
+      </c>
+      <c r="F221" t="s">
         <v>431</v>
-      </c>
-      <c r="F221" t="s">
-        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10160,10 +10154,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>432</v>
+      </c>
+      <c r="F222" t="s">
         <v>433</v>
-      </c>
-      <c r="F222" t="s">
-        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -10189,10 +10183,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>434</v>
+      </c>
+      <c r="F223" t="s">
         <v>435</v>
-      </c>
-      <c r="F223" t="s">
-        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -10218,10 +10212,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>164</v>
+      </c>
+      <c r="F224" t="s">
         <v>165</v>
-      </c>
-      <c r="F224" t="s">
-        <v>166</v>
       </c>
       <c r="G224" t="n">
         <v>12</v>
@@ -10247,10 +10241,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -10276,10 +10270,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>4</v>
@@ -10305,10 +10299,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -10334,10 +10328,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>6</v>
@@ -10363,10 +10357,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10392,10 +10386,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>7</v>
@@ -10421,10 +10415,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
         <v>449</v>
-      </c>
-      <c r="F231" t="s">
-        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10450,10 +10444,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
         <v>451</v>
-      </c>
-      <c r="F232" t="s">
-        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10479,10 +10473,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
         <v>453</v>
-      </c>
-      <c r="F233" t="s">
-        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10508,10 +10502,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
         <v>455</v>
-      </c>
-      <c r="F234" t="s">
-        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10537,10 +10531,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
         <v>457</v>
-      </c>
-      <c r="F235" t="s">
-        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10566,10 +10560,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
         <v>459</v>
-      </c>
-      <c r="F236" t="s">
-        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10595,10 +10589,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
         <v>461</v>
-      </c>
-      <c r="F237" t="s">
-        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>5</v>
@@ -10624,10 +10618,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
         <v>463</v>
-      </c>
-      <c r="F238" t="s">
-        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -10653,10 +10647,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
         <v>465</v>
-      </c>
-      <c r="F239" t="s">
-        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10682,10 +10676,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
         <v>467</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>6</v>
@@ -10711,10 +10705,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
         <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10740,10 +10734,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>470</v>
+      </c>
+      <c r="F242" t="s">
         <v>471</v>
-      </c>
-      <c r="F242" t="s">
-        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10769,10 +10763,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>472</v>
+      </c>
+      <c r="F243" t="s">
         <v>473</v>
-      </c>
-      <c r="F243" t="s">
-        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -10798,10 +10792,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>474</v>
+      </c>
+      <c r="F244" t="s">
         <v>475</v>
-      </c>
-      <c r="F244" t="s">
-        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10827,10 +10821,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>476</v>
+      </c>
+      <c r="F245" t="s">
         <v>477</v>
-      </c>
-      <c r="F245" t="s">
-        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -10856,10 +10850,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F246" t="s">
         <v>479</v>
-      </c>
-      <c r="F246" t="s">
-        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10885,10 +10879,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" t="s">
         <v>481</v>
-      </c>
-      <c r="F247" t="s">
-        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10914,10 +10908,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>482</v>
+      </c>
+      <c r="F248" t="s">
         <v>483</v>
-      </c>
-      <c r="F248" t="s">
-        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10943,10 +10937,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>484</v>
+      </c>
+      <c r="F249" t="s">
         <v>485</v>
-      </c>
-      <c r="F249" t="s">
-        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10972,10 +10966,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>486</v>
+      </c>
+      <c r="F250" t="s">
         <v>487</v>
-      </c>
-      <c r="F250" t="s">
-        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11001,10 +10995,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>488</v>
+      </c>
+      <c r="F251" t="s">
         <v>489</v>
-      </c>
-      <c r="F251" t="s">
-        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11030,10 +11024,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>490</v>
+      </c>
+      <c r="F252" t="s">
         <v>491</v>
-      </c>
-      <c r="F252" t="s">
-        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -11059,10 +11053,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>492</v>
+      </c>
+      <c r="F253" t="s">
         <v>493</v>
-      </c>
-      <c r="F253" t="s">
-        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -11088,10 +11082,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>494</v>
+      </c>
+      <c r="F254" t="s">
         <v>495</v>
-      </c>
-      <c r="F254" t="s">
-        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>6</v>
@@ -11117,10 +11111,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>496</v>
+      </c>
+      <c r="F255" t="s">
         <v>497</v>
-      </c>
-      <c r="F255" t="s">
-        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11146,10 +11140,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>498</v>
+      </c>
+      <c r="F256" t="s">
         <v>499</v>
-      </c>
-      <c r="F256" t="s">
-        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -11175,10 +11169,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>500</v>
+      </c>
+      <c r="F257" t="s">
         <v>501</v>
-      </c>
-      <c r="F257" t="s">
-        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11204,10 +11198,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>502</v>
+      </c>
+      <c r="F258" t="s">
         <v>503</v>
-      </c>
-      <c r="F258" t="s">
-        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11233,10 +11227,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>504</v>
+      </c>
+      <c r="F259" t="s">
         <v>505</v>
-      </c>
-      <c r="F259" t="s">
-        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -11262,10 +11256,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>506</v>
+      </c>
+      <c r="F260" t="s">
         <v>507</v>
-      </c>
-      <c r="F260" t="s">
-        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -11291,10 +11285,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>508</v>
+      </c>
+      <c r="F261" t="s">
         <v>509</v>
-      </c>
-      <c r="F261" t="s">
-        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11320,10 +11314,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>510</v>
+      </c>
+      <c r="F262" t="s">
         <v>511</v>
-      </c>
-      <c r="F262" t="s">
-        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11349,10 +11343,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>512</v>
+      </c>
+      <c r="F263" t="s">
         <v>513</v>
-      </c>
-      <c r="F263" t="s">
-        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11378,10 +11372,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>514</v>
+      </c>
+      <c r="F264" t="s">
         <v>515</v>
-      </c>
-      <c r="F264" t="s">
-        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11407,10 +11401,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>516</v>
+      </c>
+      <c r="F265" t="s">
         <v>517</v>
-      </c>
-      <c r="F265" t="s">
-        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11436,10 +11430,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>518</v>
+      </c>
+      <c r="F266" t="s">
         <v>519</v>
-      </c>
-      <c r="F266" t="s">
-        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11465,10 +11459,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>520</v>
+      </c>
+      <c r="F267" t="s">
         <v>521</v>
-      </c>
-      <c r="F267" t="s">
-        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11494,10 +11488,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>522</v>
+      </c>
+      <c r="F268" t="s">
         <v>523</v>
-      </c>
-      <c r="F268" t="s">
-        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11523,10 +11517,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>524</v>
+      </c>
+      <c r="F269" t="s">
         <v>525</v>
-      </c>
-      <c r="F269" t="s">
-        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>6</v>
@@ -11552,10 +11546,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>526</v>
+      </c>
+      <c r="F270" t="s">
         <v>527</v>
-      </c>
-      <c r="F270" t="s">
-        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11581,10 +11575,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>528</v>
+      </c>
+      <c r="F271" t="s">
         <v>529</v>
-      </c>
-      <c r="F271" t="s">
-        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>9</v>
@@ -11610,10 +11604,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>530</v>
+      </c>
+      <c r="F272" t="s">
         <v>531</v>
-      </c>
-      <c r="F272" t="s">
-        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11639,10 +11633,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>532</v>
+      </c>
+      <c r="F273" t="s">
         <v>533</v>
-      </c>
-      <c r="F273" t="s">
-        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11668,10 +11662,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>534</v>
+      </c>
+      <c r="F274" t="s">
         <v>535</v>
-      </c>
-      <c r="F274" t="s">
-        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11697,10 +11691,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>536</v>
+      </c>
+      <c r="F275" t="s">
         <v>537</v>
-      </c>
-      <c r="F275" t="s">
-        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11726,10 +11720,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>436</v>
+      </c>
+      <c r="F276" t="s">
         <v>437</v>
-      </c>
-      <c r="F276" t="s">
-        <v>438</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11755,10 +11749,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>538</v>
+      </c>
+      <c r="F277" t="s">
         <v>539</v>
-      </c>
-      <c r="F277" t="s">
-        <v>540</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11784,10 +11778,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>540</v>
+      </c>
+      <c r="F278" t="s">
         <v>541</v>
-      </c>
-      <c r="F278" t="s">
-        <v>542</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11813,10 +11807,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>450</v>
+      </c>
+      <c r="F279" t="s">
         <v>451</v>
-      </c>
-      <c r="F279" t="s">
-        <v>452</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11842,10 +11836,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>542</v>
+      </c>
+      <c r="F280" t="s">
         <v>543</v>
-      </c>
-      <c r="F280" t="s">
-        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11871,10 +11865,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>544</v>
+      </c>
+      <c r="F281" t="s">
         <v>545</v>
-      </c>
-      <c r="F281" t="s">
-        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11900,10 +11894,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>546</v>
+      </c>
+      <c r="F282" t="s">
         <v>547</v>
-      </c>
-      <c r="F282" t="s">
-        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11929,10 +11923,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>548</v>
+      </c>
+      <c r="F283" t="s">
         <v>549</v>
-      </c>
-      <c r="F283" t="s">
-        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11958,10 +11952,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>550</v>
+      </c>
+      <c r="F284" t="s">
         <v>551</v>
-      </c>
-      <c r="F284" t="s">
-        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11987,10 +11981,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>552</v>
+      </c>
+      <c r="F285" t="s">
         <v>553</v>
-      </c>
-      <c r="F285" t="s">
-        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -12016,10 +12010,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>554</v>
+      </c>
+      <c r="F286" t="s">
         <v>555</v>
-      </c>
-      <c r="F286" t="s">
-        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12045,10 +12039,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" t="s">
         <v>557</v>
-      </c>
-      <c r="F287" t="s">
-        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12074,10 +12068,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>494</v>
+      </c>
+      <c r="F288" t="s">
         <v>495</v>
-      </c>
-      <c r="F288" t="s">
-        <v>496</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12103,10 +12097,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>558</v>
+      </c>
+      <c r="F289" t="s">
         <v>559</v>
-      </c>
-      <c r="F289" t="s">
-        <v>560</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12132,10 +12126,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>560</v>
+      </c>
+      <c r="F290" t="s">
         <v>561</v>
-      </c>
-      <c r="F290" t="s">
-        <v>562</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12161,10 +12155,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>562</v>
+      </c>
+      <c r="F291" t="s">
         <v>563</v>
-      </c>
-      <c r="F291" t="s">
-        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12190,10 +12184,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>564</v>
+      </c>
+      <c r="F292" t="s">
         <v>565</v>
-      </c>
-      <c r="F292" t="s">
-        <v>566</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -12219,10 +12213,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>566</v>
+      </c>
+      <c r="F293" t="s">
         <v>567</v>
-      </c>
-      <c r="F293" t="s">
-        <v>568</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12248,10 +12242,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>568</v>
+      </c>
+      <c r="F294" t="s">
         <v>569</v>
-      </c>
-      <c r="F294" t="s">
-        <v>570</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12277,10 +12271,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>570</v>
+      </c>
+      <c r="F295" t="s">
         <v>571</v>
-      </c>
-      <c r="F295" t="s">
-        <v>572</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12306,10 +12300,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>572</v>
+      </c>
+      <c r="F296" t="s">
         <v>573</v>
-      </c>
-      <c r="F296" t="s">
-        <v>574</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12335,10 +12329,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>574</v>
+      </c>
+      <c r="F297" t="s">
         <v>575</v>
-      </c>
-      <c r="F297" t="s">
-        <v>576</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12393,10 +12387,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>576</v>
+      </c>
+      <c r="F299" t="s">
         <v>577</v>
-      </c>
-      <c r="F299" t="s">
-        <v>578</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -12422,10 +12416,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>578</v>
+      </c>
+      <c r="F300" t="s">
         <v>579</v>
-      </c>
-      <c r="F300" t="s">
-        <v>580</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12451,10 +12445,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>580</v>
+      </c>
+      <c r="F301" t="s">
         <v>581</v>
-      </c>
-      <c r="F301" t="s">
-        <v>582</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12480,10 +12474,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>582</v>
+      </c>
+      <c r="F302" t="s">
         <v>583</v>
-      </c>
-      <c r="F302" t="s">
-        <v>584</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12509,10 +12503,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>584</v>
+      </c>
+      <c r="F303" t="s">
         <v>585</v>
-      </c>
-      <c r="F303" t="s">
-        <v>586</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12538,10 +12532,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>586</v>
+      </c>
+      <c r="F304" t="s">
         <v>587</v>
-      </c>
-      <c r="F304" t="s">
-        <v>588</v>
       </c>
       <c r="G304" t="n">
         <v>5</v>
@@ -12567,10 +12561,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>588</v>
+      </c>
+      <c r="F305" t="s">
         <v>589</v>
-      </c>
-      <c r="F305" t="s">
-        <v>590</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12596,10 +12590,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>590</v>
+      </c>
+      <c r="F306" t="s">
         <v>591</v>
-      </c>
-      <c r="F306" t="s">
-        <v>592</v>
       </c>
       <c r="G306" t="n">
         <v>13</v>
@@ -12625,10 +12619,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>592</v>
+      </c>
+      <c r="F307" t="s">
         <v>593</v>
-      </c>
-      <c r="F307" t="s">
-        <v>594</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12654,10 +12648,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>594</v>
+      </c>
+      <c r="F308" t="s">
         <v>595</v>
-      </c>
-      <c r="F308" t="s">
-        <v>596</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12683,10 +12677,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>596</v>
+      </c>
+      <c r="F309" t="s">
         <v>597</v>
-      </c>
-      <c r="F309" t="s">
-        <v>598</v>
       </c>
       <c r="G309" t="n">
         <v>6</v>
@@ -12712,10 +12706,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>598</v>
+      </c>
+      <c r="F310" t="s">
         <v>599</v>
-      </c>
-      <c r="F310" t="s">
-        <v>600</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12741,10 +12735,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>600</v>
+      </c>
+      <c r="F311" t="s">
         <v>601</v>
-      </c>
-      <c r="F311" t="s">
-        <v>602</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12770,10 +12764,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>602</v>
+      </c>
+      <c r="F312" t="s">
         <v>603</v>
-      </c>
-      <c r="F312" t="s">
-        <v>604</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12799,10 +12793,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>604</v>
+      </c>
+      <c r="F313" t="s">
         <v>605</v>
-      </c>
-      <c r="F313" t="s">
-        <v>606</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12828,10 +12822,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>606</v>
+      </c>
+      <c r="F314" t="s">
         <v>607</v>
-      </c>
-      <c r="F314" t="s">
-        <v>608</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12857,10 +12851,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>608</v>
+      </c>
+      <c r="F315" t="s">
         <v>609</v>
-      </c>
-      <c r="F315" t="s">
-        <v>610</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12886,10 +12880,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>610</v>
+      </c>
+      <c r="F316" t="s">
         <v>611</v>
-      </c>
-      <c r="F316" t="s">
-        <v>612</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12915,10 +12909,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>612</v>
+      </c>
+      <c r="F317" t="s">
         <v>613</v>
-      </c>
-      <c r="F317" t="s">
-        <v>614</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12944,10 +12938,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>614</v>
+      </c>
+      <c r="F318" t="s">
         <v>615</v>
-      </c>
-      <c r="F318" t="s">
-        <v>616</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12973,10 +12967,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>616</v>
+      </c>
+      <c r="F319" t="s">
         <v>617</v>
-      </c>
-      <c r="F319" t="s">
-        <v>618</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -13002,10 +12996,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>618</v>
+      </c>
+      <c r="F320" t="s">
         <v>619</v>
-      </c>
-      <c r="F320" t="s">
-        <v>620</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -13031,10 +13025,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>620</v>
+      </c>
+      <c r="F321" t="s">
         <v>621</v>
-      </c>
-      <c r="F321" t="s">
-        <v>622</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -13060,10 +13054,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>622</v>
+      </c>
+      <c r="F322" t="s">
         <v>623</v>
-      </c>
-      <c r="F322" t="s">
-        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>7</v>
@@ -13089,10 +13083,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>624</v>
+      </c>
+      <c r="F323" t="s">
         <v>625</v>
-      </c>
-      <c r="F323" t="s">
-        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13118,10 +13112,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>626</v>
+      </c>
+      <c r="F324" t="s">
         <v>627</v>
-      </c>
-      <c r="F324" t="s">
-        <v>628</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13147,10 +13141,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>628</v>
+      </c>
+      <c r="F325" t="s">
         <v>629</v>
-      </c>
-      <c r="F325" t="s">
-        <v>630</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13176,10 +13170,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>630</v>
+      </c>
+      <c r="F326" t="s">
         <v>631</v>
-      </c>
-      <c r="F326" t="s">
-        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13205,10 +13199,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>632</v>
+      </c>
+      <c r="F327" t="s">
         <v>633</v>
-      </c>
-      <c r="F327" t="s">
-        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13234,10 +13228,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>634</v>
+      </c>
+      <c r="F328" t="s">
         <v>635</v>
-      </c>
-      <c r="F328" t="s">
-        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>4</v>
@@ -13263,10 +13257,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>636</v>
+      </c>
+      <c r="F329" t="s">
         <v>637</v>
-      </c>
-      <c r="F329" t="s">
-        <v>638</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13321,10 +13315,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>638</v>
+      </c>
+      <c r="F331" t="s">
         <v>639</v>
-      </c>
-      <c r="F331" t="s">
-        <v>640</v>
       </c>
       <c r="G331" t="n">
         <v>5</v>
@@ -13350,10 +13344,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>640</v>
+      </c>
+      <c r="F332" t="s">
         <v>641</v>
-      </c>
-      <c r="F332" t="s">
-        <v>642</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13379,10 +13373,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>642</v>
+      </c>
+      <c r="F333" t="s">
         <v>643</v>
-      </c>
-      <c r="F333" t="s">
-        <v>644</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13408,10 +13402,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>644</v>
+      </c>
+      <c r="F334" t="s">
         <v>645</v>
-      </c>
-      <c r="F334" t="s">
-        <v>646</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13437,10 +13431,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>646</v>
+      </c>
+      <c r="F335" t="s">
         <v>647</v>
-      </c>
-      <c r="F335" t="s">
-        <v>648</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13466,10 +13460,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>648</v>
+      </c>
+      <c r="F336" t="s">
         <v>649</v>
-      </c>
-      <c r="F336" t="s">
-        <v>650</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13495,10 +13489,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>650</v>
+      </c>
+      <c r="F337" t="s">
         <v>651</v>
-      </c>
-      <c r="F337" t="s">
-        <v>652</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13524,10 +13518,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>652</v>
+      </c>
+      <c r="F338" t="s">
         <v>653</v>
-      </c>
-      <c r="F338" t="s">
-        <v>654</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13553,10 +13547,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>654</v>
+      </c>
+      <c r="F339" t="s">
         <v>655</v>
-      </c>
-      <c r="F339" t="s">
-        <v>656</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13582,10 +13576,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>656</v>
+      </c>
+      <c r="F340" t="s">
         <v>657</v>
-      </c>
-      <c r="F340" t="s">
-        <v>658</v>
       </c>
       <c r="G340" t="n">
         <v>9</v>
@@ -13640,10 +13634,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>658</v>
+      </c>
+      <c r="F342" t="s">
         <v>659</v>
-      </c>
-      <c r="F342" t="s">
-        <v>660</v>
       </c>
       <c r="G342" t="n">
         <v>10</v>
@@ -13669,10 +13663,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>660</v>
+      </c>
+      <c r="F343" t="s">
         <v>661</v>
-      </c>
-      <c r="F343" t="s">
-        <v>662</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13698,10 +13692,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>662</v>
+      </c>
+      <c r="F344" t="s">
         <v>663</v>
-      </c>
-      <c r="F344" t="s">
-        <v>664</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13756,10 +13750,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>664</v>
+      </c>
+      <c r="F346" t="s">
         <v>665</v>
-      </c>
-      <c r="F346" t="s">
-        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13785,10 +13779,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>666</v>
+      </c>
+      <c r="F347" t="s">
         <v>667</v>
-      </c>
-      <c r="F347" t="s">
-        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13814,10 +13808,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>668</v>
+      </c>
+      <c r="F348" t="s">
         <v>669</v>
-      </c>
-      <c r="F348" t="s">
-        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13843,10 +13837,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>670</v>
+      </c>
+      <c r="F349" t="s">
         <v>671</v>
-      </c>
-      <c r="F349" t="s">
-        <v>672</v>
       </c>
       <c r="G349" t="n">
         <v>76</v>
@@ -13872,10 +13866,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>672</v>
+      </c>
+      <c r="F350" t="s">
         <v>673</v>
-      </c>
-      <c r="F350" t="s">
-        <v>674</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13901,10 +13895,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>674</v>
+      </c>
+      <c r="F351" t="s">
         <v>675</v>
-      </c>
-      <c r="F351" t="s">
-        <v>676</v>
       </c>
       <c r="G351" t="n">
         <v>24</v>
@@ -13930,10 +13924,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>676</v>
+      </c>
+      <c r="F352" t="s">
         <v>677</v>
-      </c>
-      <c r="F352" t="s">
-        <v>678</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13959,10 +13953,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>678</v>
+      </c>
+      <c r="F353" t="s">
         <v>679</v>
-      </c>
-      <c r="F353" t="s">
-        <v>680</v>
       </c>
       <c r="G353" t="n">
         <v>3</v>
@@ -13988,10 +13982,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>680</v>
+      </c>
+      <c r="F354" t="s">
         <v>681</v>
-      </c>
-      <c r="F354" t="s">
-        <v>682</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -14017,10 +14011,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>682</v>
+      </c>
+      <c r="F355" t="s">
         <v>683</v>
-      </c>
-      <c r="F355" t="s">
-        <v>684</v>
       </c>
       <c r="G355" t="n">
         <v>4</v>
@@ -14046,10 +14040,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>684</v>
+      </c>
+      <c r="F356" t="s">
         <v>685</v>
-      </c>
-      <c r="F356" t="s">
-        <v>686</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14075,10 +14069,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>686</v>
+      </c>
+      <c r="F357" t="s">
         <v>687</v>
-      </c>
-      <c r="F357" t="s">
-        <v>688</v>
       </c>
       <c r="G357" t="n">
         <v>4</v>
@@ -14104,10 +14098,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>688</v>
+      </c>
+      <c r="F358" t="s">
         <v>689</v>
-      </c>
-      <c r="F358" t="s">
-        <v>690</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -14133,10 +14127,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F359" t="s">
-        <v>692</v>
+        <v>38</v>
       </c>
       <c r="G359" t="n">
         <v>21</v>
@@ -14162,10 +14156,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F360" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G360" t="n">
         <v>7</v>
@@ -14191,10 +14185,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F361" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14220,10 +14214,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F362" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14249,10 +14243,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F363" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -14278,10 +14272,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14307,10 +14301,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F365" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G365" t="n">
         <v>4</v>
@@ -14336,10 +14330,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F366" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14365,10 +14359,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F367" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14394,10 +14388,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F368" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G368" t="n">
         <v>3</v>
@@ -14423,10 +14417,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F369" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -14452,10 +14446,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F370" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14481,10 +14475,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F371" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14510,10 +14504,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F372" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14539,10 +14533,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F373" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14568,10 +14562,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F374" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G374" t="n">
         <v>4</v>
@@ -14626,10 +14620,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>146</v>
+      </c>
+      <c r="F376" t="s">
         <v>147</v>
-      </c>
-      <c r="F376" t="s">
-        <v>148</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14655,10 +14649,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F377" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14684,10 +14678,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F378" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G378" t="n">
         <v>6</v>
@@ -14713,10 +14707,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F379" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14742,10 +14736,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F380" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14771,10 +14765,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F381" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14800,10 +14794,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F382" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14829,10 +14823,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F383" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14858,10 +14852,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F384" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14887,10 +14881,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F385" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14916,10 +14910,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F386" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G386" t="n">
         <v>4</v>
@@ -14945,10 +14939,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F387" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14974,10 +14968,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F388" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -15003,10 +14997,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F389" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -15032,10 +15026,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F390" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G390" t="n">
         <v>3</v>
@@ -15061,10 +15055,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F391" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G391" t="n">
         <v>7</v>
@@ -15090,10 +15084,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F392" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15119,10 +15113,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F393" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15148,10 +15142,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F394" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15177,10 +15171,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F395" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G395" t="n">
         <v>14</v>
@@ -15206,10 +15200,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F396" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G396" t="n">
         <v>4</v>
@@ -15235,10 +15229,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F397" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G397" t="n">
         <v>24</v>
@@ -15264,10 +15258,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F398" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -15293,10 +15287,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F399" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -15322,10 +15316,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F400" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15351,10 +15345,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F401" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G401" t="n">
         <v>26</v>
@@ -15380,10 +15374,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F402" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15409,10 +15403,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F403" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15467,10 +15461,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G405" t="n">
         <v>3</v>
@@ -15496,10 +15490,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15525,10 +15519,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G407" t="n">
         <v>7</v>
@@ -15554,10 +15548,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15583,10 +15577,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15612,10 +15606,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F410" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15641,10 +15635,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F411" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15670,10 +15664,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F412" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15699,10 +15693,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F413" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15728,10 +15722,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F414" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15757,10 +15751,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F415" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15786,10 +15780,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F416" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15815,10 +15809,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F417" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15844,10 +15838,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F418" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15873,10 +15867,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F419" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15902,10 +15896,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>210</v>
+      </c>
+      <c r="F420" t="s">
         <v>211</v>
-      </c>
-      <c r="F420" t="s">
-        <v>212</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15931,10 +15925,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F421" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15960,10 +15954,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F422" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15989,10 +15983,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F423" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16018,10 +16012,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F424" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16047,10 +16041,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F425" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16076,10 +16070,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F426" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -16105,10 +16099,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F427" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16134,10 +16128,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F428" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16163,10 +16157,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F429" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16221,10 +16215,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F431" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16250,10 +16244,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F432" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G432" t="n">
         <v>26</v>
@@ -16279,10 +16273,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F433" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16308,10 +16302,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F434" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G434" t="n">
         <v>7</v>
@@ -16337,10 +16331,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F435" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G435" t="n">
         <v>7</v>
@@ -16366,10 +16360,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F436" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G436" t="n">
         <v>5</v>
@@ -16395,10 +16389,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F437" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G437" t="n">
         <v>4</v>
@@ -16424,10 +16418,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F438" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G438" t="n">
         <v>3</v>
@@ -16453,10 +16447,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F439" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16482,10 +16476,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F440" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16511,10 +16505,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F441" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16540,10 +16534,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F442" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -16569,10 +16563,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F443" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G443" t="n">
         <v>15</v>
@@ -16598,10 +16592,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F444" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16627,10 +16621,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F445" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16656,10 +16650,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F446" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16685,10 +16679,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F447" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16714,10 +16708,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F448" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16743,10 +16737,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F449" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16772,10 +16766,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F450" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16801,10 +16795,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F451" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16830,10 +16824,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F452" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16859,10 +16853,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F453" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16888,10 +16882,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F454" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16917,10 +16911,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F455" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16946,10 +16940,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F456" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16975,10 +16969,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F457" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G457" t="n">
         <v>3</v>
@@ -17004,10 +16998,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F458" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17033,10 +17027,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F459" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G459" t="n">
         <v>7</v>
@@ -17062,10 +17056,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F460" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17091,10 +17085,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F461" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G461" t="n">
         <v>3</v>
@@ -17120,10 +17114,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F462" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G462" t="n">
         <v>2</v>
@@ -17149,10 +17143,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F463" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -17178,10 +17172,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F464" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17207,10 +17201,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F465" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17236,10 +17230,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F466" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17265,10 +17259,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F467" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17294,10 +17288,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F468" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17323,10 +17317,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F469" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17352,10 +17346,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F470" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17381,10 +17375,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F471" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -17410,10 +17404,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F472" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G472" t="n">
         <v>3</v>
@@ -17439,10 +17433,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F473" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17468,10 +17462,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F474" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17497,10 +17491,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F475" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17526,10 +17520,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F476" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17555,10 +17549,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F477" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G477" t="n">
         <v>3</v>
@@ -17584,10 +17578,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F478" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G478" t="n">
         <v>3</v>
@@ -17613,10 +17607,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F479" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17642,10 +17636,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F480" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17671,10 +17665,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F481" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17700,10 +17694,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F482" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G482" t="n">
         <v>12</v>
@@ -17729,10 +17723,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F483" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G483" t="n">
         <v>3</v>
@@ -17758,10 +17752,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F484" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17787,10 +17781,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
+        <v>354</v>
+      </c>
+      <c r="F485" t="s">
         <v>355</v>
-      </c>
-      <c r="F485" t="s">
-        <v>356</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17816,10 +17810,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F486" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17845,10 +17839,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F487" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17874,10 +17868,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F488" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17903,10 +17897,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F489" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17932,10 +17926,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F490" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -17961,10 +17955,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F491" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17990,10 +17984,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F492" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18019,10 +18013,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F493" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18048,10 +18042,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
+        <v>226</v>
+      </c>
+      <c r="F494" t="s">
         <v>227</v>
-      </c>
-      <c r="F494" t="s">
-        <v>228</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18077,10 +18071,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
+        <v>104</v>
+      </c>
+      <c r="F495" t="s">
         <v>105</v>
-      </c>
-      <c r="F495" t="s">
-        <v>106</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18106,10 +18100,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F496" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18135,10 +18129,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
+        <v>420</v>
+      </c>
+      <c r="F497" t="s">
         <v>421</v>
-      </c>
-      <c r="F497" t="s">
-        <v>422</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18164,10 +18158,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F498" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18193,10 +18187,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F499" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18222,10 +18216,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F500" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18251,10 +18245,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F501" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18280,10 +18274,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F502" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18309,10 +18303,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
+        <v>366</v>
+      </c>
+      <c r="F503" t="s">
         <v>367</v>
-      </c>
-      <c r="F503" t="s">
-        <v>368</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18338,10 +18332,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F504" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18367,10 +18361,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F505" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18396,10 +18390,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F506" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18425,10 +18419,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F507" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18454,10 +18448,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F508" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -18483,10 +18477,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F509" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18512,10 +18506,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F510" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18541,10 +18535,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F511" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18570,10 +18564,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F512" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18599,10 +18593,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F513" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18628,10 +18622,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F514" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18657,10 +18651,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F515" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G515" t="n">
         <v>11</v>
@@ -18686,10 +18680,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F516" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18715,10 +18709,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F517" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18744,10 +18738,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F518" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18773,10 +18767,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F519" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18802,10 +18796,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
+        <v>100</v>
+      </c>
+      <c r="F520" t="s">
         <v>101</v>
-      </c>
-      <c r="F520" t="s">
-        <v>102</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18831,10 +18825,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F521" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18860,10 +18854,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F522" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18889,10 +18883,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F523" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18918,10 +18912,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F524" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18947,10 +18941,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F525" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18976,10 +18970,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F526" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G526" t="n">
         <v>3</v>
@@ -19005,10 +18999,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F527" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19034,10 +19028,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F528" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19063,10 +19057,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F529" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19092,10 +19086,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F530" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19121,10 +19115,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F531" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19150,10 +19144,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F532" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19179,10 +19173,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F533" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19208,10 +19202,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F534" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19237,10 +19231,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F535" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19266,10 +19260,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F536" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G536" t="n">
         <v>17</v>
@@ -19295,10 +19289,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F537" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19324,10 +19318,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F538" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19353,10 +19347,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F539" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G539" t="n">
         <v>7</v>
@@ -19411,10 +19405,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
+        <v>566</v>
+      </c>
+      <c r="F541" t="s">
         <v>567</v>
-      </c>
-      <c r="F541" t="s">
-        <v>568</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19440,10 +19434,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F542" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19469,10 +19463,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F543" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19498,10 +19492,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F544" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G544" t="n">
         <v>3</v>
@@ -19527,10 +19521,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F545" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19556,10 +19550,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F546" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19585,10 +19579,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F547" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19614,10 +19608,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F548" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19643,10 +19637,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F549" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19701,10 +19695,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F551" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19730,10 +19724,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F552" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19759,10 +19753,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F553" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19788,10 +19782,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
+        <v>614</v>
+      </c>
+      <c r="F554" t="s">
         <v>615</v>
-      </c>
-      <c r="F554" t="s">
-        <v>616</v>
       </c>
       <c r="G554" t="n">
         <v>5</v>
@@ -19817,10 +19811,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F555" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19846,10 +19840,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F556" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19875,10 +19869,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F557" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G557" t="n">
         <v>2</v>
@@ -19904,10 +19898,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F558" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19933,10 +19927,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F559" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19962,10 +19956,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F560" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19991,10 +19985,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F561" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20020,10 +20014,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F562" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20049,10 +20043,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F563" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20078,10 +20072,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F564" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20107,10 +20101,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F565" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20136,10 +20130,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F566" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20165,10 +20159,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F567" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G567" t="n">
         <v>4</v>
@@ -20194,10 +20188,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F568" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20223,10 +20217,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F569" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20252,10 +20246,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F570" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20281,10 +20275,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F571" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20310,10 +20304,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F572" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20339,10 +20333,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F573" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20368,10 +20362,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F574" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20397,10 +20391,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F575" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -20426,10 +20420,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F576" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20455,10 +20449,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F577" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20484,10 +20478,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F578" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20513,10 +20507,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F579" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20542,10 +20536,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F580" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20571,10 +20565,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F581" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20600,10 +20594,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F582" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20629,10 +20623,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F583" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20658,10 +20652,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F584" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20687,10 +20681,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F585" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20716,10 +20710,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F586" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20745,10 +20739,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F587" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20774,10 +20768,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F588" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G588" t="n">
         <v>2</v>
@@ -20803,10 +20797,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F589" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G589" t="n">
         <v>5</v>
@@ -20832,10 +20826,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F590" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20890,10 +20884,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F592" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G592" t="n">
         <v>5</v>
@@ -20919,10 +20913,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F593" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -20948,10 +20942,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F594" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G594" t="n">
         <v>2</v>

--- a/xlsx/法律_intext.xlsx
+++ b/xlsx/法律_intext.xlsx
@@ -29,7 +29,7 @@
     <t>正义女神</t>
   </si>
   <si>
-    <t>政策_政策_政治_法律</t>
+    <t>体育运动_体育运动_文化_法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
